--- a/template/new-excel-template - Copy.xlsx
+++ b/template/new-excel-template - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ifinworth\ifinworth\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DECA19F-EF26-40AD-967A-C4EC39099600}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4436F0-A12D-44AB-8297-BD364771B9BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="2" r:id="rId1"/>
@@ -1325,8 +1325,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1813,8 +1813,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC96DA0-E1F5-4262-81B7-A5E910BCEBDB}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="62">
-        <f>(BS!C68+BS!C56)-(BS!B68+BS!B56)</f>
+        <f>(BS!C71+BS!C60)-(BS!B71+BS!B60)</f>
         <v>0</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="C18" s="62"/>
       <c r="D18" s="62">
-        <f>(BS!C69+BS!C70+BS!C58+BS!C59)-(BS!B69+BS!B70+BS!B58+BS!B59)</f>
+        <f>(BS!C73+BS!C74+BS!C62+BS!C63)-(BS!B73+BS!B74+BS!B62+BS!B63)</f>
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="62">
-        <f>(BS!C60-BS!B60)</f>
+        <f>(BS!C64-BS!B64)</f>
         <v>0</v>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C20" s="62"/>
       <c r="D20" s="62">
-        <f>BS!C71-BS!B71</f>
+        <f>BS!C75-BS!B75</f>
         <v>0</v>
       </c>
     </row>
@@ -2559,11 +2559,11 @@
         <v>155</v>
       </c>
       <c r="C21" s="62">
-        <f>'P&amp;L'!C57</f>
+        <f>'P&amp;L'!C56</f>
         <v>0</v>
       </c>
       <c r="D21" s="62">
-        <f>'P&amp;L'!D57</f>
+        <f>'P&amp;L'!D56</f>
         <v>0</v>
       </c>
     </row>
@@ -2572,11 +2572,11 @@
         <v>156</v>
       </c>
       <c r="C22" s="62">
-        <f>-'P&amp;L'!C46</f>
+        <f>-'P&amp;L'!C45</f>
         <v>0</v>
       </c>
       <c r="D22" s="62">
-        <f>-'P&amp;L'!D46</f>
+        <f>-'P&amp;L'!D45</f>
         <v>0</v>
       </c>
     </row>
@@ -2585,11 +2585,11 @@
         <v>157</v>
       </c>
       <c r="C23" s="63">
-        <f t="shared" ref="C23:D23" si="0">SUM(C3:C22)</f>
+        <f>SUM(C3:C22)</f>
         <v>0</v>
       </c>
       <c r="D23" s="63">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D23" si="0">SUM(D3:D22)</f>
         <v>0</v>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="C26" s="62"/>
       <c r="D26" s="62">
-        <f>-((BS!C6+BS!C7+BS!C8+BS!C13+BS!C11+BS!C12)+'P&amp;L'!D32-(BS!B6+BS!B7+BS!B8+BS!B13+BS!B12+BS!B11))</f>
+        <f>-((BS!C6+BS!C7+BS!C8+BS!C9+BS!C10+BS!C13+BS!C14+BS!C15)+'P&amp;L'!D32-(BS!B6+BS!B7+BS!B8+BS!B9+BS!B10+BS!B13+BS!B14+BS!B15))</f>
         <v>0</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C29" s="62"/>
       <c r="D29" s="62">
-        <f>-(BS!C9-BS!B9+BS!C16+BS!C17-BS!B16+BS!B17+BS!C29-BS!B29)</f>
+        <f>-(BS!C11-BS!B11+BS!C18+BS!C19-BS!B18+BS!B19+BS!C31-BS!B31)</f>
         <v>0</v>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="C33" s="62"/>
       <c r="D33" s="62">
-        <f>BS!C43-BS!B43</f>
+        <f>BS!C45-BS!B45</f>
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="64">
-        <f>BS!C44-BS!B44</f>
+        <f>BS!C46-BS!B46</f>
         <v>0</v>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C35" s="62"/>
       <c r="D35" s="62">
-        <f>BS!C55-BS!B55</f>
+        <f>BS!C59-BS!B59</f>
         <v>0</v>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C36" s="62"/>
       <c r="D36" s="62">
-        <f>BS!C66-BS!B66</f>
+        <f>BS!C70-BS!B70</f>
         <v>0</v>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C37" s="62"/>
       <c r="D37" s="62">
-        <f>BS!C57 - BS!B57</f>
+        <f>BS!C61 - BS!B61</f>
         <v>0</v>
       </c>
     </row>
@@ -2748,7 +2748,10 @@
         <v>177</v>
       </c>
       <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
+      <c r="D39" s="65">
+        <f>BS!C48 - BS!B48</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" s="67" t="s">
@@ -2759,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="63">
-        <f t="shared" ref="D40" si="2">SUM(D33:D38)</f>
+        <f>SUM(D33:D39)</f>
         <v>0</v>
       </c>
     </row>
@@ -2776,11 +2779,11 @@
         <v>170</v>
       </c>
       <c r="C42" s="63">
-        <f t="shared" ref="C42:D42" si="3">C23+C30+C40</f>
+        <f t="shared" ref="C42:D42" si="2">C23+C30+C40</f>
         <v>0</v>
       </c>
       <c r="D42" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2814,7 +2817,7 @@
         <v>172</v>
       </c>
       <c r="C46" s="63">
-        <f>BS!B31</f>
+        <f>BS!B33</f>
         <v>0</v>
       </c>
       <c r="D46" s="63">

--- a/template/new-excel-template - Copy.xlsx
+++ b/template/new-excel-template - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ifinworth\ifinworth\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4436F0-A12D-44AB-8297-BD364771B9BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDA5C86-C959-44E6-97E8-10ADE6590A28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="2" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1813,7 +1813,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC96DA0-E1F5-4262-81B7-A5E910BCEBDB}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="62">
-        <f>-((BS!C30)-(BS!B30))</f>
+        <f>-((BS!C32)-(BS!B32))</f>
         <v>0</v>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="62">
-        <f>(BS!C71+BS!C60)-(BS!B71+BS!B60)</f>
+        <f>(BS!C72+BS!C60)-(BS!B72+BS!B60)</f>
         <v>0</v>
       </c>
     </row>
